--- a/documents/example_docs_school/график.xlsx
+++ b/documents/example_docs_school/график.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_school/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845BC48A-A9C2-7844-B849-43FB73161398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8439792-0BAB-D246-A055-516BB0C1C55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E4EB94-B1C0-BE47-A9AD-9B963093183B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,41 +440,33 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0.57638888888888895</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="B5" s="1">
-        <v>0.63888888888888895</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>0.47569444444444442</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="B6" s="1">
-        <v>0.50694444444444442</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0.52430555555555558</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="B7" s="1">
-        <v>0.55555555555555558</v>
+        <v>0.59027777777777779</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>0.55902777777777779</v>
+        <v>0.59375</v>
       </c>
       <c r="B8" s="1">
-        <v>0.59027777777777779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0.59375</v>
-      </c>
-      <c r="B9" s="1">
         <v>0.625</v>
       </c>
     </row>
